--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b05e205afed90d48/Documents/Formation/P4_WILTSHIRE_Yannis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9055D702-41E1-4847-9765-56685EFF1E83}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="11_5A81ED5323ABBB538F7231002AC4FA02FDE9485C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35DCC0EC-B0B3-4F8D-AE8F-F8F61125FD27}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1488" windowWidth="17280" windowHeight="8964" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>Catégorie</t>
   </si>
@@ -114,9 +114,6 @@
     <t>SEO</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?) SEO</t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/meta</t>
   </si>
   <si>
@@ -162,24 +159,12 @@
     <t>lien provenant de site de mauvaise qualité, sans lien avec le domaine d'activité</t>
   </si>
   <si>
-    <t>hiérarchisation de balise h2,h3</t>
-  </si>
-  <si>
-    <t>balises h3 se trouvant avant des balises h2</t>
-  </si>
-  <si>
     <t>titre de "sous-partie" en h3</t>
   </si>
   <si>
     <t>des titres de sous parties sont en h3 au lieu d'être en h2</t>
   </si>
   <si>
-    <t xml:space="preserve">button tooggle navigation </t>
-  </si>
-  <si>
-    <t>un button nommé "toggle navigation" sans fonction precise sur la page 2</t>
-  </si>
-  <si>
     <t>filtre avec effet désagreable en arrière-plan</t>
   </si>
   <si>
@@ -189,23 +174,125 @@
     <t>titre exprimé sous la forme d'une image</t>
   </si>
   <si>
-    <t>div .black-background</t>
-  </si>
-  <si>
-    <t>div .black-background avec les mauvaises données</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/CSS/background-color</t>
-  </si>
-  <si>
     <t>attrbut .texture-paper::before, bg-dots-bg</t>
+  </si>
+  <si>
+    <t>Mettre un titre d'en-tête</t>
+  </si>
+  <si>
+    <t>Supprimer les mots-clés servant au black-hat</t>
+  </si>
+  <si>
+    <t>Apporter une description par rapport à la page web</t>
+  </si>
+  <si>
+    <t>Supprimer les balises &lt;li&gt; inutiles</t>
+  </si>
+  <si>
+    <t>Utiliser les formats d'images adaptés et très peut gourmandes en ressources</t>
+  </si>
+  <si>
+    <t>Apporter une description correcte et précise à l'attribut</t>
+  </si>
+  <si>
+    <t>Intégrer la balise servant à l'analyse du site web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retirer les liens Spammy </t>
+  </si>
+  <si>
+    <t>Restructurer les bons titres H2 et H3</t>
+  </si>
+  <si>
+    <t>Retirer les filtres graphiques indésirables</t>
+  </si>
+  <si>
+    <t>Utiliser Google search console pour analyser les differents mots clefs</t>
+  </si>
+  <si>
+    <t>definir une langue pour la balise HTML</t>
+  </si>
+  <si>
+    <t>&lt;html lang="fr"&gt;</t>
+  </si>
+  <si>
+    <t>Configurer Google Search</t>
+  </si>
+  <si>
+    <t>Mettre un titre d'en-tête afin que le site web soit indexé par les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Eviter les pratiques Black Hat qui pénalisent les sites</t>
+  </si>
+  <si>
+    <t>Remplacer Paris par la ville ou l'entreprise est situé</t>
+  </si>
+  <si>
+    <t>Avec une entreprise physique et pour un bon referencement utiliser la bonne localisation</t>
+  </si>
+  <si>
+    <t>Apporter une description entre 132 et 160 caractère pour apporter une description du site</t>
+  </si>
+  <si>
+    <t>Utiliser utilement les balises</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiérarchiser sémantiquement la structure html</t>
+  </si>
+  <si>
+    <t>Utiliser les balises sémantiques convenablement et structurer ceux-ci</t>
+  </si>
+  <si>
+    <t>Eviter les images au format .BMP car trop lourdes et gourmandes en ressource</t>
+  </si>
+  <si>
+    <t>Utiliser cette attribut pour décrire les photos et ainsi avoir une meilleur accessibilité pour le visiteur déficient</t>
+  </si>
+  <si>
+    <t>Pour une analyse détaillé des visites du site web  utiliser Google Analytics</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>les titres H2 doivent etre utilisé pour faire office des  sous parties</t>
+  </si>
+  <si>
+    <t>Avoir une bonne opacité et visibilité sur les differents éléments du site</t>
+  </si>
+  <si>
+    <t>Exprimer les titre avec les balises &lt;h1&gt;,&lt;h2&gt;,&lt;H3&gt;... et non une image</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/CSS/background-color#accessibilit%C3%A9</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#les_%C3%A9quivalents_textuels</t>
+  </si>
+  <si>
+    <t>Eviter les images de texte</t>
+  </si>
+  <si>
+    <t>contraste et couleur des fonts</t>
+  </si>
+  <si>
+    <t>Certains Fonts se voient mal car le contraste est confondu avec l'arriere-plan</t>
+  </si>
+  <si>
+    <t>Vérifier le contraste et la luminosite entre la couleur du texte et la couleur d'arriere plan afin que cela soit visible</t>
+  </si>
+  <si>
+    <t>Changer la couleur du font si la couleur d'arrière plan est similaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +334,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -278,10 +371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,8 +385,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,8 +614,8 @@
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="45.81640625" customWidth="1"/>
     <col min="3" max="3" width="44.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="88.26953125" customWidth="1"/>
+    <col min="5" max="5" width="66.6328125" customWidth="1"/>
     <col min="6" max="6" width="123" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
@@ -565,7 +662,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -573,9 +670,14 @@
       <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" t="s">
-        <v>29</v>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -588,9 +690,14 @@
       <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" t="s">
-        <v>28</v>
+      <c r="D3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -603,9 +710,14 @@
       <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" t="s">
-        <v>30</v>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -618,9 +730,14 @@
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" t="s">
-        <v>31</v>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,9 +750,14 @@
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" t="s">
-        <v>32</v>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -648,9 +770,14 @@
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" t="s">
-        <v>28</v>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -663,9 +790,14 @@
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" t="s">
-        <v>33</v>
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -678,9 +810,14 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" t="s">
-        <v>34</v>
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -691,11 +828,16 @@
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,9 +850,14 @@
       <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="D11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -718,14 +865,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -733,84 +885,103 @@
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>82</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1964,24 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{DFD8AE23-2651-49F9-A2E2-1037D46350E8}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{207A9ABD-F35B-416D-891D-99495BEC7354}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{FF542A24-D736-4504-8A59-BB7EB80F0EAE}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{96C014D4-F64B-484B-A3AA-04911CE3DBC8}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{A46F0085-D2DC-4458-8E5A-0E73748E1DF6}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{EE7C5FF9-F4A6-4C3E-B122-E1FD06E70D72}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{533E65CA-D4CE-4B4C-BB26-AD9B0D068AEC}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{5FFA865D-50F1-466C-A96E-B52CDD61785C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{E6BEAB30-E4FE-42C3-9063-7EA69EB2CC0F}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{A5D76786-CCAB-4F46-84B6-799CF45B6AA1}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{0FC7D646-B4F4-4FEC-ACA1-E8E03D440EBA}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{1A2E4A5D-60DB-4567-8A63-69BF1B281146}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{F8291AC7-2DC5-4C20-9B61-0FE1CBBC89D1}"/>
+    <hyperlink ref="F17" r:id="rId14" location="accessibilit%C3%A9" xr:uid="{C43967E1-9EA4-4E62-A467-CC6D9BC16AE6}"/>
+    <hyperlink ref="F15" r:id="rId15" location="accessibilit%C3%A9" xr:uid="{D9BA3083-0E06-48FD-A5B8-194BFF831085}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>